--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="win-point-total" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="117">
   <si>
     <t>timespan</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>start_kelly_lose</t>
+  </si>
+  <si>
+    <t>type</t>
   </si>
 </sst>
 </file>
@@ -1432,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:F32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1466,7 +1469,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1474,7 +1477,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1482,31 +1485,31 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -1514,7 +1517,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -1522,7 +1525,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1530,7 +1533,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -1538,7 +1541,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -1546,7 +1549,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -1554,7 +1557,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -1562,7 +1565,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -1570,23 +1573,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -1594,7 +1597,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -1602,7 +1605,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1610,7 +1613,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -1618,7 +1621,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -1626,7 +1629,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -1634,7 +1637,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -1642,7 +1645,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -1650,9 +1653,17 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
     </row>
@@ -1663,10 +1674,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C29"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1697,7 +1708,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -1705,7 +1716,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -1713,31 +1724,31 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
         <v>95</v>
       </c>
-      <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="s">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="B8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -1745,7 +1756,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -1753,7 +1764,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -1761,7 +1772,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -1769,7 +1780,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
@@ -1777,7 +1788,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B15" t="s">
         <v>70</v>
@@ -1785,7 +1796,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -1793,7 +1804,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B17" t="s">
         <v>70</v>
@@ -1801,23 +1812,23 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
         <v>105</v>
       </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="B19" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" t="s">
         <v>70</v>
@@ -1825,7 +1836,7 @@
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" t="s">
         <v>70</v>
@@ -1833,7 +1844,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" t="s">
         <v>70</v>
@@ -1841,7 +1852,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" t="s">
         <v>70</v>
@@ -1849,7 +1860,7 @@
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>70</v>
@@ -1857,7 +1868,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
         <v>70</v>
@@ -1865,7 +1876,7 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
         <v>70</v>
@@ -1873,7 +1884,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
         <v>70</v>
@@ -1881,9 +1892,17 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
         <v>115</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>70</v>
       </c>
     </row>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="win-point-total" sheetId="1" r:id="rId1"/>
+    <sheet name="single" sheetId="1" r:id="rId1"/>
     <sheet name="mix_match" sheetId="2" r:id="rId2"/>
     <sheet name="compute method" sheetId="3" r:id="rId3"/>
     <sheet name="europe" sheetId="4" r:id="rId4"/>
     <sheet name="europe_new" sheetId="6" r:id="rId5"/>
+    <sheet name="doc_info" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
   <si>
     <t>timespan</t>
   </si>
@@ -374,6 +375,12 @@
   </si>
   <si>
     <t>type</t>
+  </si>
+  <si>
+    <t>info</t>
+  </si>
+  <si>
+    <t>ntext</t>
   </si>
 </sst>
 </file>
@@ -711,7 +718,7 @@
   <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -871,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1363,7 +1370,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1437,8 +1444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1677,7 +1684,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1909,4 +1916,49 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
   <si>
     <t>timespan</t>
   </si>
@@ -381,6 +381,21 @@
   </si>
   <si>
     <t>ntext</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>other_names</t>
+  </si>
+  <si>
+    <t>other_urls</t>
+  </si>
+  <si>
+    <t>pay_way</t>
   </si>
 </sst>
 </file>
@@ -1920,14 +1935,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1958,6 +1974,41 @@
         <v>118</v>
       </c>
     </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
   <si>
     <t>timespan</t>
   </si>
@@ -1938,7 +1938,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1974,6 +1974,11 @@
         <v>118</v>
       </c>
     </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>92</v>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,22 +4,25 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
     <sheet name="mix_match" sheetId="2" r:id="rId2"/>
     <sheet name="compute method" sheetId="3" r:id="rId3"/>
-    <sheet name="europe" sheetId="4" r:id="rId4"/>
-    <sheet name="europe_new" sheetId="6" r:id="rId5"/>
+    <sheet name="europe_500_log" sheetId="4" r:id="rId4"/>
+    <sheet name="europe_500" sheetId="6" r:id="rId5"/>
     <sheet name="doc_info" sheetId="7" r:id="rId6"/>
+    <sheet name="europe_100_log" sheetId="8" r:id="rId7"/>
+    <sheet name="europe_100" sheetId="9" r:id="rId8"/>
+    <sheet name="company" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="124">
   <si>
     <t>timespan</t>
   </si>
@@ -893,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1385,7 +1388,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,8 +1462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1699,7 +1702,7 @@
   <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection sqref="A1:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1935,10 +1938,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1974,43 +1977,536 @@
         <v>118</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>119</v>
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>120</v>
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>103</v>
+      </c>
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B30" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>117</v>
       </c>
     </row>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="europe_100_log" sheetId="8" r:id="rId7"/>
     <sheet name="europe_100" sheetId="9" r:id="rId8"/>
     <sheet name="company" sheetId="10" r:id="rId9"/>
+    <sheet name="company_url" sheetId="11" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="129">
   <si>
     <t>timespan</t>
   </si>
@@ -399,6 +400,21 @@
   </si>
   <si>
     <t>pay_way</t>
+  </si>
+  <si>
+    <t>site_name</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>is_use</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>seconds</t>
   </si>
 </sst>
 </file>
@@ -892,12 +908,65 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2465,10 +2534,13 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="6" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="europe_100" sheetId="9" r:id="rId8"/>
     <sheet name="company" sheetId="10" r:id="rId9"/>
     <sheet name="company_url" sheetId="11" r:id="rId10"/>
+    <sheet name="teams" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="141">
   <si>
     <t>timespan</t>
   </si>
@@ -415,6 +416,42 @@
   </si>
   <si>
     <t>seconds</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>select_type</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>nvarchar(500)</t>
+  </si>
+  <si>
+    <t>nvarchar(4000)</t>
+  </si>
+  <si>
+    <t>name1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name2 </t>
+  </si>
+  <si>
+    <t>name3</t>
+  </si>
+  <si>
+    <t>english name</t>
+  </si>
+  <si>
+    <t>chinese name</t>
+  </si>
+  <si>
+    <t>cantonese name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id </t>
   </si>
 </sst>
 </file>
@@ -910,10 +947,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:A8"/>
+  <dimension ref="A2:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -921,39 +958,137 @@
     <col min="1" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="C2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>127</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="C7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2145,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F18"/>
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2055,8 +2190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2531,10 +2666,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2542,44 +2677,65 @@
     <col min="1" max="1" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
+      <c r="B2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
+      <c r="B6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
+      <c r="B7" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>117</v>
+      </c>
+      <c r="B8" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="6" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="6" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="company" sheetId="10" r:id="rId9"/>
     <sheet name="company_url" sheetId="11" r:id="rId10"/>
     <sheet name="teams" sheetId="12" r:id="rId11"/>
+    <sheet name="future_match" sheetId="13" r:id="rId12"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="141">
   <si>
     <t>timespan</t>
   </si>
@@ -1031,7 +1032,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -1089,6 +1090,65 @@
       </c>
       <c r="B5" t="s">
         <v>133</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="6" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
   <si>
     <t>timespan</t>
   </si>
@@ -453,6 +453,30 @@
   </si>
   <si>
     <t xml:space="preserve">id </t>
+  </si>
+  <si>
+    <t>all_names</t>
+  </si>
+  <si>
+    <t>time_zone</t>
+  </si>
+  <si>
+    <t>time_add</t>
+  </si>
+  <si>
+    <t>f_start_time</t>
+  </si>
+  <si>
+    <t>f_host</t>
+  </si>
+  <si>
+    <t>f_client</t>
+  </si>
+  <si>
+    <t>f_state</t>
+  </si>
+  <si>
+    <t>target_id</t>
   </si>
 </sst>
 </file>
@@ -951,7 +975,7 @@
   <dimension ref="A2:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1033,7 +1057,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1086,7 +1110,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="B5" t="s">
         <v>133</v>
@@ -1101,7 +1125,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -2248,10 +2272,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H35" sqref="H35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2274,7 +2298,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>70</v>
@@ -2282,7 +2306,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>70</v>
@@ -2290,7 +2314,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>70</v>
@@ -2298,7 +2322,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>70</v>
@@ -2306,23 +2330,39 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="B8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>70</v>
@@ -2330,7 +2370,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
         <v>70</v>
@@ -2338,7 +2378,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>98</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s">
         <v>70</v>
@@ -2346,7 +2386,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B13" t="s">
         <v>70</v>
@@ -2354,23 +2394,23 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>146</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>102</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s">
         <v>70</v>
@@ -2378,105 +2418,9 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>103</v>
+        <v>148</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>106</v>
-      </c>
-      <c r="B21" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" t="s">
-        <v>109</v>
-      </c>
-      <c r="B24" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>110</v>
-      </c>
-      <c r="B25" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>111</v>
-      </c>
-      <c r="B26" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>112</v>
-      </c>
-      <c r="B27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>113</v>
-      </c>
-      <c r="B28" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B29" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s">
         <v>70</v>
       </c>
     </row>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,14 @@
     <sheet name="company_url" sheetId="11" r:id="rId10"/>
     <sheet name="teams" sheetId="12" r:id="rId11"/>
     <sheet name="future_match" sheetId="13" r:id="rId12"/>
+    <sheet name="teams_log" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
   <si>
     <t>timespan</t>
   </si>
@@ -477,6 +478,39 @@
   </si>
   <si>
     <t>target_id</t>
+  </si>
+  <si>
+    <t>lg_name_all</t>
+  </si>
+  <si>
+    <t>lg_name2</t>
+  </si>
+  <si>
+    <t>lg_name1</t>
+  </si>
+  <si>
+    <t>lg_name3</t>
+  </si>
+  <si>
+    <t>season_name</t>
+  </si>
+  <si>
+    <t>name2</t>
+  </si>
+  <si>
+    <t>name_all</t>
+  </si>
+  <si>
+    <t>web_site</t>
+  </si>
+  <si>
+    <t>full_name</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>eng_name</t>
   </si>
 </sst>
 </file>
@@ -1180,6 +1214,128 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B59"/>
@@ -2274,7 +2430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,14 @@
     <sheet name="teams" sheetId="12" r:id="rId11"/>
     <sheet name="future_match" sheetId="13" r:id="rId12"/>
     <sheet name="teams_log" sheetId="14" r:id="rId13"/>
+    <sheet name="names" sheetId="15" r:id="rId14"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
   <si>
     <t>timespan</t>
   </si>
@@ -1218,7 +1219,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1329,6 +1330,45 @@
       </c>
       <c r="B11" t="s">
         <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/web_helper/data/DataTable.xlsx
+++ b/web_helper/data/DataTable.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="8" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="722" firstSheet="10" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="single" sheetId="1" r:id="rId1"/>
@@ -21,13 +21,14 @@
     <sheet name="future_match" sheetId="13" r:id="rId12"/>
     <sheet name="teams_log" sheetId="14" r:id="rId13"/>
     <sheet name="names" sheetId="15" r:id="rId14"/>
+    <sheet name="mix_log" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="160">
   <si>
     <t>timespan</t>
   </si>
@@ -1341,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1373,6 +1374,33 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
